--- a/biology/Botanique/Ginkgo_(genre)/Ginkgo_(genre).xlsx
+++ b/biology/Botanique/Ginkgo_(genre)/Ginkgo_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ginkgo est un genre de plante sans fleur de la famille des Ginkgoaceae. On considère classiquement que le genre Ginkgo est apparu à l'ère Paléozoïque. En effet, on retrouve, à cette ère notamment, des fossiles très proches de l'espèce actuelle Ginkgo biloba. Il était alors composé de plusieurs espèces, mais il n'en subsiste plus qu'une (Ginkgo biloba). La notion actuelle d'espèce étant bien plus liée à la connaissance que l'on a de la génétique et de l'interfécondité des individus d'un groupe vivant que de la ressemblance morphologique au sein de ce groupe, il est prématuré de prétendre donner un âge à la seule espèce actuelle.On évoque souvent, comme pour le cœlacanthe notamment, le terme de « fossile vivant » pour qualifier Ginkgo biloba. Cette appellation n'est aujourd'hui plus utilisée par les scientifiques, car elle donne l'idée que cette espèce n'a pas évolué depuis les premiers fossiles qui lui sont attribués. Il reste toutefois remarquable que la morphologie des Ginkgo (ou Protoginkgo) fossiles et de l'espèce actuelle soient très similaires.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salisburia Sm.</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">† Ginkgo abaniensis (2004)
 † Ginkgo adiantoides (Heer, 1874)
@@ -618,7 +634,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Des feuilles fossiles ayant une morphologie proche de l'espèce actuelle G. biloba remontent à la période Permien (-251 à -299 Ma).
 Le genre s'est diversifié et étendu à tout le continent Eurasie au Jurassique et au Crétacé, mais il s'est raréfié par la suite, probablement sous l'effet de la concurrence avec les plantes à fleurs (apparues au Crétacé).
@@ -655,7 +673,9 @@
           <t>Mode de culture et de reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Du fait que le genre est monotypique, voir </t>
